--- a/src/planilha_fiscalizacao.xlsx
+++ b/src/planilha_fiscalizacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz.defreitas\projects\gerador-de-relatorios\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669D8135-42CB-420F-9D8E-091FDE078171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC56D43-5B1D-4254-B56A-342AFF16E450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +150,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -504,7 +498,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,9 +719,11 @@
       <c r="L5" t="s">
         <v>23</v>
       </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/planilha_fiscalizacao.xlsx
+++ b/src/planilha_fiscalizacao.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz.defreitas\projects\gerador-de-relatorios\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC56D43-5B1D-4254-B56A-342AFF16E450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178D60EC-1A5A-49AD-BCEC-9C30A31F9D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fiscalizações" sheetId="1" r:id="rId1"/>
+    <sheet name="Não-conformidades " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>ID da Fiscalização</t>
   </si>
@@ -85,7 +86,7 @@
     <t>26/04/2025 a 01/05/2031</t>
   </si>
   <si>
-    <t xml:space="preserve">Keven poor favor trate direito da situação ok?????? </t>
+    <t xml:space="preserve">Aqui vai as observaçoes da fiscalização </t>
   </si>
   <si>
     <t>foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg</t>
@@ -129,6 +130,45 @@
   </si>
   <si>
     <t>26/04/2025 a 01/05/2034</t>
+  </si>
+  <si>
+    <t>CTR 06/2035</t>
+  </si>
+  <si>
+    <t>10:00:10</t>
+  </si>
+  <si>
+    <t>Nº 1.041.080/18</t>
+  </si>
+  <si>
+    <t>26/04/2025 a 01/05/2035</t>
+  </si>
+  <si>
+    <t>CTR 06/2036</t>
+  </si>
+  <si>
+    <t>10:00:11</t>
+  </si>
+  <si>
+    <t>Nº 1.041.080/19</t>
+  </si>
+  <si>
+    <t>26/04/2025 a 01/05/2036</t>
+  </si>
+  <si>
+    <t>foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg</t>
+  </si>
+  <si>
+    <t>Nº</t>
+  </si>
+  <si>
+    <t>Legenda da Foto</t>
+  </si>
+  <si>
+    <t>Foto</t>
+  </si>
+  <si>
+    <t>Não Conformidade</t>
   </si>
 </sst>
 </file>
@@ -495,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,8 +552,8 @@
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="54" customWidth="1"/>
-    <col min="11" max="11" width="397" customWidth="1"/>
+    <col min="10" max="10" width="42" customWidth="1"/>
+    <col min="11" max="11" width="793" customWidth="1"/>
     <col min="12" max="12" width="51" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
   </cols>
@@ -723,7 +763,128 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45820</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45821</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D731C6E-F15F-4310-802E-7A32E5DFEE61}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/src/planilha_fiscalizacao.xlsx
+++ b/src/planilha_fiscalizacao.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz.defreitas\projects\gerador-de-relatorios\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178D60EC-1A5A-49AD-BCEC-9C30A31F9D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7543B7D-5E38-4123-9E72-F579000A8A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fiscalizações" sheetId="1" r:id="rId1"/>
     <sheet name="Não-conformidades " sheetId="2" r:id="rId2"/>
+    <sheet name="Observações Importantes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="80">
   <si>
     <t>ID da Fiscalização</t>
   </si>
@@ -50,125 +51,217 @@
     <t>Período</t>
   </si>
   <si>
+    <t>Relatório Gerado</t>
+  </si>
+  <si>
+    <t>10:00:06</t>
+  </si>
+  <si>
+    <t>Joao Recife Pessoas</t>
+  </si>
+  <si>
+    <t>Terminal Rodoviário do Recife - TIP</t>
+  </si>
+  <si>
+    <t>Keven Tavares</t>
+  </si>
+  <si>
+    <t>Maria Ângela Albuquerque de Freitas</t>
+  </si>
+  <si>
+    <t>Nº 1.041.080/14</t>
+  </si>
+  <si>
+    <t>26/04/2025 a 01/05/2031</t>
+  </si>
+  <si>
+    <t>10:00:07</t>
+  </si>
+  <si>
+    <t>Nº 1.041.080/15</t>
+  </si>
+  <si>
+    <t>26/04/2025 a 01/05/2032</t>
+  </si>
+  <si>
+    <t>10:00:08</t>
+  </si>
+  <si>
+    <t>Nº 1.041.080/16</t>
+  </si>
+  <si>
+    <t>26/04/2025 a 01/05/2033</t>
+  </si>
+  <si>
+    <t>10:00:09</t>
+  </si>
+  <si>
+    <t>Nº 1.041.080/17</t>
+  </si>
+  <si>
+    <t>26/04/2025 a 01/05/2034</t>
+  </si>
+  <si>
+    <t>10:00:10</t>
+  </si>
+  <si>
+    <t>Nº 1.041.080/18</t>
+  </si>
+  <si>
+    <t>26/04/2025 a 01/05/2035</t>
+  </si>
+  <si>
+    <t>10:00:11</t>
+  </si>
+  <si>
+    <t>Nº 1.041.080/19</t>
+  </si>
+  <si>
+    <t>26/04/2025 a 01/05/2036</t>
+  </si>
+  <si>
+    <t>10:00:12</t>
+  </si>
+  <si>
+    <t>Nº 1.041.080/20</t>
+  </si>
+  <si>
+    <t>26/04/2025 a 01/05/2037</t>
+  </si>
+  <si>
+    <t>10:00:13</t>
+  </si>
+  <si>
+    <t>Nº 1.041.080/21</t>
+  </si>
+  <si>
+    <t>26/04/2025 a 01/05/2038</t>
+  </si>
+  <si>
+    <t>10:00:14</t>
+  </si>
+  <si>
+    <t>Nº 1.041.080/22</t>
+  </si>
+  <si>
+    <t>26/04/2025 a 01/05/2039</t>
+  </si>
+  <si>
+    <t>10:00:15</t>
+  </si>
+  <si>
+    <t>Nº 1.041.080/23</t>
+  </si>
+  <si>
+    <t>26/04/2025 a 01/05/2040</t>
+  </si>
+  <si>
+    <t>10:00:16</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>Alcides Vieira</t>
+  </si>
+  <si>
+    <t>Nº 1.041.080/24</t>
+  </si>
+  <si>
+    <t>26/04/2025 a 01/05/2041</t>
+  </si>
+  <si>
+    <t>Nº</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Não Conformidade</t>
+  </si>
+  <si>
+    <t>Foto</t>
+  </si>
+  <si>
+    <t>Legenda da Foto</t>
+  </si>
+  <si>
+    <t>Terminal do Recife (TIP)</t>
+  </si>
+  <si>
+    <t>CIMENTO NÃO POSICIONADO NA SACADA</t>
+  </si>
+  <si>
+    <t>foto01.jpg</t>
+  </si>
+  <si>
+    <t>Infiltração em coluna de sustentação do Terminal do recife</t>
+  </si>
+  <si>
+    <t>Terminal de Petrolina</t>
+  </si>
+  <si>
+    <t>Terminal de Caruaru</t>
+  </si>
+  <si>
+    <t>Terminal de Garanhuns</t>
+  </si>
+  <si>
+    <t>Terminal de Arcoverde</t>
+  </si>
+  <si>
+    <t>Infiltração na coluna de sustentação da estrutura metálica da área de embarque e desembarque do Terminal do Recife (TIP), conforme evidenciado nas fotos 01 e 02, a seguir.</t>
+  </si>
+  <si>
+    <t>foto01.jpg;foto02.jpg</t>
+  </si>
+  <si>
+    <t>Infiltração em coluna de sustentação do Terminal do Recife em 20/03/2025</t>
+  </si>
+  <si>
+    <t>Falta de manutenção adequada no banheiro feminino para PCD localizado no primeiro andar do Terminal do Recife (TIP), conforme detalhado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espelho oxidado, conforme evidenciado na foto 03, a seguir. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barra oxidada em torno da pian cofnorme foto 01 e foto 02. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barra de apoio vertical oxidada, conforme foto 04, a seguir. </t>
+  </si>
+  <si>
+    <t>Espelho e barra em torno da pia oxidados no banehiro feminino PCD do Terminal de Recife, 20/03/2025.</t>
+  </si>
+  <si>
+    <t>Piso desgastado na entrada do banheiro feminino do TIP em 20/03/2025;</t>
+  </si>
+  <si>
+    <t>Piso desgastado conforme evidência da foto 04.</t>
+  </si>
+  <si>
+    <t>Terminal de Caruaru (CAR)</t>
+  </si>
+  <si>
+    <t>Terminal de Garanhuns (GAR)</t>
+  </si>
+  <si>
+    <t>Terminal de Arcoverde (ARC)</t>
+  </si>
+  <si>
+    <t>Terminal de Serra Talhada (SER)</t>
+  </si>
+  <si>
     <t>Observações</t>
   </si>
   <si>
-    <t>Fotos</t>
-  </si>
-  <si>
-    <t>Não conformidade</t>
-  </si>
-  <si>
-    <t>Relatório Gerado</t>
-  </si>
-  <si>
-    <t>CTR 06/2031</t>
-  </si>
-  <si>
-    <t>10:00:06</t>
-  </si>
-  <si>
-    <t>Joao Recife Pessoas</t>
-  </si>
-  <si>
-    <t>Terminal Rodoviário do Recife - TIP</t>
-  </si>
-  <si>
-    <t>Keven Tavares</t>
-  </si>
-  <si>
-    <t>Maria Ângela Albuquerque de Freitas</t>
-  </si>
-  <si>
-    <t>Nº 1.041.080/14</t>
-  </si>
-  <si>
-    <t>26/04/2025 a 01/05/2031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aqui vai as observaçoes da fiscalização </t>
-  </si>
-  <si>
-    <t>foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg</t>
-  </si>
-  <si>
-    <t>CIMENTO NÃO POSICIONADO 
-DE ACORDO COM ORIENTAÇÃO</t>
-  </si>
-  <si>
-    <t>CTR 06/2032</t>
-  </si>
-  <si>
-    <t>10:00:07</t>
-  </si>
-  <si>
-    <t>Nº 1.041.080/15</t>
-  </si>
-  <si>
-    <t>26/04/2025 a 01/05/2032</t>
-  </si>
-  <si>
-    <t>CTR 06/2033</t>
-  </si>
-  <si>
-    <t>10:00:08</t>
-  </si>
-  <si>
-    <t>Nº 1.041.080/16</t>
-  </si>
-  <si>
-    <t>26/04/2025 a 01/05/2033</t>
-  </si>
-  <si>
-    <t>CTR 06/2034</t>
-  </si>
-  <si>
-    <t>10:00:09</t>
-  </si>
-  <si>
-    <t>Nº 1.041.080/17</t>
-  </si>
-  <si>
-    <t>26/04/2025 a 01/05/2034</t>
-  </si>
-  <si>
-    <t>CTR 06/2035</t>
-  </si>
-  <si>
-    <t>10:00:10</t>
-  </si>
-  <si>
-    <t>Nº 1.041.080/18</t>
-  </si>
-  <si>
-    <t>26/04/2025 a 01/05/2035</t>
-  </si>
-  <si>
-    <t>CTR 06/2036</t>
-  </si>
-  <si>
-    <t>10:00:11</t>
-  </si>
-  <si>
-    <t>Nº 1.041.080/19</t>
-  </si>
-  <si>
-    <t>26/04/2025 a 01/05/2036</t>
-  </si>
-  <si>
-    <t>foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg;foto01.jpg;foto02.jpg</t>
-  </si>
-  <si>
-    <t>Nº</t>
-  </si>
-  <si>
-    <t>Legenda da Foto</t>
-  </si>
-  <si>
-    <t>Foto</t>
-  </si>
-  <si>
-    <t>Não Conformidade</t>
+    <t>Lorem ipsum lorem pisum ipsum lorem pisum ipsum lorem pisum ipsum lorem pisum ipsum lorem pisum ipsum lorem pisum ipsum lorem pisum ipsum lorem pisum ipsum lorem pisum ipsum lorem pisum.</t>
+  </si>
+  <si>
+    <t>Viga do terminal não posicionada corretamente.</t>
+  </si>
+  <si>
+    <t>Durante a fiscalização, foi observada a presença de cidadãos que ficaram fiscalizando o serviço conforme o andamento do mesmo. Precisamos mobilizar uma equipe que fiscalize os agentes e os cidadãos em campo.</t>
   </si>
 </sst>
 </file>
@@ -178,13 +271,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -200,7 +298,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -223,16 +321,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,297 +674,396 @@
     <col min="7" max="7" width="37" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="42" customWidth="1"/>
-    <col min="11" max="11" width="793" customWidth="1"/>
-    <col min="12" max="12" width="51" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>45816</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>45817</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>45818</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>45819</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>45820</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>45821</v>
       </c>
       <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45822</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45823</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45824</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45825</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
         <v>42</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I11" t="s">
         <v>43</v>
       </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45826</v>
+      </c>
+      <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -851,20 +1072,1071 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D731C6E-F15F-4310-802E-7A32E5DFEE61}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1.4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1.6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1.7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1.8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1.9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>1.2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>1.3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>1.4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>1.5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>1.6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>1.7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>1.8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>1.9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>1.17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>1.18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>1.19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>1.2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>1.21</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>1.22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52">
+        <v>1.23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53">
+        <v>1.24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="195.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -872,16 +2144,108 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="116.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/src/planilha_fiscalizacao.xlsx
+++ b/src/planilha_fiscalizacao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2745" yWindow="1725" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fiscalizações" sheetId="1" state="visible" r:id="rId1"/>
@@ -484,7 +484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,517 +610,7 @@
         </is>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="n">
-        <v>45817</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10:00:07</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Joao Recife Pessoas</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Terminal Rodoviário do Recife - TIP</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Alcides Vieira, Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Maria Ângela Albuquerque de Freitas</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Nº 1.041.080/15</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>26/04/2025 a 01/05/2032</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Alcides Vieira;Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="n">
-        <v>45818</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10:00:08</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Joao Recife Pessoas</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Terminal Rodoviário do Recife - TIP</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Alcides Vieira, Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Maria Ângela Albuquerque de Freitas</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Nº 1.041.080/16</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>26/04/2025 a 01/05/2033</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Alcides Vieira;Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="n">
-        <v>45819</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10:00:09</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Joao Recife Pessoas</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Terminal Rodoviário do Recife - TIP</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Alcides Vieira, Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Maria Ângela Albuquerque de Freitas</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Nº 1.041.080/17</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>26/04/2025 a 01/05/2034</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Alcides Vieira;Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="n">
-        <v>45820</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10:00:10</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Joao Recife Pessoas</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Terminal Rodoviário do Recife - TIP</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Alcides Vieira, Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Maria Ângela Albuquerque de Freitas</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Nº 1.041.080/18</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>26/04/2025 a 01/05/2035</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Alcides Vieira;Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="n">
-        <v>45821</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10:00:11</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Joao Recife Pessoas</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Terminal Rodoviário do Recife - TIP</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Alcides Vieira, Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Maria Ângela Albuquerque de Freitas</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Nº 1.041.080/19</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>26/04/2025 a 01/05/2036</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Alcides Vieira;Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="n">
-        <v>45822</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10:00:12</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Joao Recife Pessoas</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Terminal Rodoviário do Recife - TIP</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Alcides Vieira, Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Maria Ângela Albuquerque de Freitas</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Nº 1.041.080/20</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>26/04/2025 a 01/05/2037</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Alcides Vieira;Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="n">
-        <v>45823</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10:00:13</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Joao Recife Pessoas</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Terminal Rodoviário do Recife - TIP</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Alcides Vieira, Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Maria Ângela Albuquerque de Freitas</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Nº 1.041.080/21</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>26/04/2025 a 01/05/2038</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Alcides Vieira;Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="n">
-        <v>45824</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10:00:14</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Joao Recife Pessoas</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Terminal Rodoviário do Recife - TIP</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Alcides Vieira, Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Maria Ângela Albuquerque de Freitas</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Nº 1.041.080/22</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>26/04/2025 a 01/05/2039</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Alcides Vieira;Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="n">
-        <v>45825</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10:00:15</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Joao Recife Pessoas</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Terminal Rodoviário do Recife - TIP</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Alcides Vieira, Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Maria Ângela Albuquerque de Freitas</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Nº 1.041.080/23</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>26/04/2025 a 01/05/2040</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Alcides Vieira;Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="n">
-        <v>45826</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10:00:16</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Recife</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Terminal Rodoviário do Recife - TIP</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Alcides Vieira, Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Maria Ângela Albuquerque de Freitas</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Nº 1.041.080/24</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>26/04/2025 a 01/05/2041</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Alcides Vieira;Enildo Manoel</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
